--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_34.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1459373.101886153</v>
+        <v>1481971.619172086</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3011791.733846789</v>
+        <v>2999618.213667039</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10928818.18189272</v>
+        <v>11007835.81666968</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6807858.294005965</v>
+        <v>6796723.858459276</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>19.54805109077634</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3.018301393454494</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="16">
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>61.41019607786535</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="H17" t="n">
-        <v>69.72093106024678</v>
+        <v>67.58039164023418</v>
       </c>
       <c r="I17" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>13.06179261717815</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>74.2011264087665</v>
       </c>
       <c r="I18" t="n">
-        <v>48.3484034606872</v>
+        <v>51.36231502368512</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>18.74309875482413</v>
       </c>
       <c r="S18" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="H19" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>67.58039164023418</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.41019607786535</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>239.9883394409945</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,58 +2090,58 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>213.3113350801065</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>235.4736144794173</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>108.8208885504218</v>
-      </c>
-      <c r="S20" t="n">
-        <v>167.9718401955175</v>
-      </c>
-      <c r="T20" t="n">
-        <v>182.0476201734035</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125.4849542591395</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>109.4107477369088</v>
       </c>
       <c r="E21" t="n">
-        <v>84.94416935751505</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.0348945656539</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>99.30919933548068</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>133.6488532761079</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>162.1304108670917</v>
       </c>
       <c r="U21" t="n">
-        <v>184.8931526902469</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>210.6467537701917</v>
+        <v>213.6606653331897</v>
       </c>
       <c r="X21" t="n">
-        <v>164.7247558127496</v>
+        <v>110.1334811619866</v>
       </c>
       <c r="Y21" t="n">
-        <v>164.6344663865765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.5811551904824</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>108.3996448188392</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>113.3771639907694</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>184.6614259983093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.4201463391473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>60.95463083058895</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>172.441571742676</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>182.0476201734035</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>210.2974235171086</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>39.84381390076609</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>125.4849542591395</v>
+        <v>9.298312925001921</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>134.6741811605858</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>109.4107477369088</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>104.020983002656</v>
+        <v>107.0348945656539</v>
       </c>
       <c r="G24" t="n">
-        <v>96.29528777248277</v>
+        <v>99.30919933548068</v>
       </c>
       <c r="H24" t="n">
-        <v>71.18721484576858</v>
+        <v>74.2011264087665</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>51.36231502368512</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.10960476191526</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>130.63494171311</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>162.1304108670917</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>187.9070642532449</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>183.8705101085976</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>164.7247558127496</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>107.5672436274845</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>57.85290271166295</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.9822802092423</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>146.3756837908488</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>184.6614259983093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,73 +2552,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>122.5753457211283</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>89.71003992231368</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>106.3741056310313</v>
       </c>
       <c r="C27" t="n">
-        <v>113.4980566717395</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>88.23462324806252</v>
+        <v>87.28598754580275</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>84.91013437454788</v>
       </c>
       <c r="G27" t="n">
-        <v>72.99297020999636</v>
+        <v>77.18443914437464</v>
       </c>
       <c r="H27" t="n">
-        <v>53.02500191992024</v>
+        <v>52.07636621766047</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>29.23755483257909</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.94739183606691</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>112.4727287872616</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>140.9542863782454</v>
+        <v>15.58623444522954</v>
       </c>
       <c r="U27" t="n">
-        <v>166.7309397643986</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>191.5359051420836</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>145.6139071846415</v>
       </c>
       <c r="Y27" t="n">
-        <v>146.4722534607281</v>
+        <v>145.5236177584684</v>
       </c>
     </row>
     <row r="28">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.6215378653611</v>
+        <v>119.6729021631013</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>107.0877430797918</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>88.45639499937636</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>10.39131969585996</v>
+        <v>147.2477885376398</v>
       </c>
       <c r="X28" t="n">
-        <v>166.4992130724609</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.3742110355186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2795,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>212.8594666780458</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>119.2146903964578</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223972</v>
       </c>
       <c r="C30" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068812</v>
       </c>
       <c r="D30" t="n">
-        <v>33.20223178701112</v>
+        <v>33.20223178701113</v>
       </c>
       <c r="E30" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777332</v>
       </c>
       <c r="F30" t="n">
-        <v>30.82637861575624</v>
+        <v>30.82637861575625</v>
       </c>
       <c r="G30" t="n">
-        <v>23.10068338558301</v>
+        <v>23.10068338558303</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>57.44033732621021</v>
       </c>
       <c r="T30" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719398</v>
       </c>
       <c r="U30" t="n">
         <v>111.6985483033472</v>
@@ -2934,10 +2934,10 @@
         <v>137.452149383292</v>
       </c>
       <c r="X30" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584985</v>
       </c>
       <c r="Y30" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967674</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.21219656051199</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>63.05055759954186</v>
       </c>
       <c r="S31" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T31" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0761955788632</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>137.8948095462004</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2801645589633</v>
+        <v>129.8958464728012</v>
       </c>
       <c r="X31" t="n">
         <v>111.4668216114095</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="32">
@@ -3032,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
@@ -3044,7 +3044,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>228.0677061829616</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223972</v>
       </c>
       <c r="C33" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068812</v>
       </c>
       <c r="D33" t="n">
-        <v>33.20223178701112</v>
+        <v>33.20223178701129</v>
       </c>
       <c r="E33" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777332</v>
       </c>
       <c r="F33" t="n">
-        <v>30.82637861575648</v>
+        <v>30.82637861575625</v>
       </c>
       <c r="G33" t="n">
-        <v>23.100683385583</v>
+        <v>23.10068338558301</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.44033732621018</v>
+        <v>57.4403373262102</v>
       </c>
       <c r="T33" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719398</v>
       </c>
       <c r="U33" t="n">
         <v>111.6985483033472</v>
@@ -3171,10 +3171,10 @@
         <v>137.452149383292</v>
       </c>
       <c r="X33" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584985</v>
       </c>
       <c r="Y33" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967674</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430966</v>
+        <v>65.58914640430967</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>34.37263924058472</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894153</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H34" t="n">
-        <v>47.98433872981194</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I34" t="n">
-        <v>41.20764114963065</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954185</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>76.69815626707731</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
         <v>113.7027556506539</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>22.13005637978578</v>
       </c>
       <c r="V34" t="n">
-        <v>137.8948095462003</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>172.2801645589634</v>
       </c>
       <c r="X34" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>104.3418195744672</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>173.2329759034128</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>94.7772358086177</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T35" t="n">
-        <v>108.8530157865037</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>137.1028191302088</v>
+        <v>137.1028191302089</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>113.1406848303747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223972</v>
       </c>
       <c r="C36" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068812</v>
       </c>
       <c r="D36" t="n">
-        <v>33.20223178701112</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777332</v>
       </c>
       <c r="F36" t="n">
-        <v>30.82637861575624</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>23.100683385583</v>
+        <v>23.10068338558301</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.44033732621055</v>
+        <v>57.4403373262102</v>
       </c>
       <c r="T36" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719398</v>
       </c>
       <c r="U36" t="n">
         <v>111.6985483033472</v>
@@ -3405,13 +3405,13 @@
         <v>118.5577533717976</v>
       </c>
       <c r="W36" t="n">
-        <v>137.452149383292</v>
+        <v>102.0535337179362</v>
       </c>
       <c r="X36" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584985</v>
       </c>
       <c r="Y36" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967674</v>
       </c>
     </row>
     <row r="37">
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>53.0039873210002</v>
+        <v>25.83738122805429</v>
       </c>
       <c r="D37" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>32.19112886894153</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.05055759954185</v>
+        <v>63.05055759954186</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>113.7027556506539</v>
       </c>
       <c r="U37" t="n">
-        <v>30.51645508294462</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>137.8948095462004</v>
       </c>
       <c r="W37" t="n">
-        <v>172.2801645589633</v>
+        <v>172.2801645589634</v>
       </c>
       <c r="X37" t="n">
         <v>111.4668216114095</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>94.7772358086177</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="X38" t="n">
-        <v>98.23826724542566</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223972</v>
       </c>
       <c r="C39" t="n">
-        <v>58.46566521068834</v>
+        <v>58.46566521068812</v>
       </c>
       <c r="D39" t="n">
-        <v>33.20223178701112</v>
+        <v>33.20223178701113</v>
       </c>
       <c r="E39" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777332</v>
       </c>
       <c r="F39" t="n">
-        <v>30.82637861575624</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>23.100683385583</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.44033732621018</v>
+        <v>57.4403373262102</v>
       </c>
       <c r="T39" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719398</v>
       </c>
       <c r="U39" t="n">
         <v>111.6985483033472</v>
@@ -3645,10 +3645,10 @@
         <v>137.452149383292</v>
       </c>
       <c r="X39" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584985</v>
       </c>
       <c r="Y39" t="n">
-        <v>91.43986199967672</v>
+        <v>45.93969793289286</v>
       </c>
     </row>
     <row r="40">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>53.0039873210002</v>
+        <v>53.00398732100021</v>
       </c>
       <c r="D40" t="n">
-        <v>34.37263924058472</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E40" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>31.17821424530361</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G40" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.20764114963065</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>63.05055759954186</v>
       </c>
       <c r="S40" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T40" t="n">
-        <v>113.7027556506539</v>
+        <v>74.47518409074927</v>
       </c>
       <c r="U40" t="n">
-        <v>107.8532436460161</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V40" t="n">
-        <v>137.8948095462003</v>
+        <v>137.8948095462004</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>164.1820745918252</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.00577729049147</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U41" t="n">
-        <v>157.9864727911637</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>79.34931887164296</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D42" t="n">
-        <v>54.08588544796598</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>27.39456908240296</v>
       </c>
       <c r="F42" t="n">
-        <v>51.7100322767111</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>43.98433704653786</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>78.32399098716505</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U42" t="n">
-        <v>132.582201964302</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V42" t="n">
-        <v>139.4414070327525</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>66.40182527091234</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.703167284545773</v>
       </c>
       <c r="S43" t="n">
-        <v>130.6574179202995</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>134.5864093116087</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U43" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="V43" t="n">
-        <v>158.7784632071552</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W43" t="n">
-        <v>69.43961476133777</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>99.43237549220565</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>99.43237549220565</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>99.43237549220565</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.43237549220565</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.43237549220565</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.43237549220565</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>73.55329347742703</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>47.67421146264842</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.7951294478698</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>99.43237549220565</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>99.43237549220565</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>99.43237549220565</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>99.43237549220565</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="C17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="D17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="E17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="F17" t="n">
-        <v>216.8532231522342</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="G17" t="n">
-        <v>146.4280402630961</v>
+        <v>74.40111374258574</v>
       </c>
       <c r="H17" t="n">
-        <v>76.00285737395791</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="I17" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="J17" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="K17" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="L17" t="n">
-        <v>71.81255899205418</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="M17" t="n">
-        <v>71.81255899205418</v>
+        <v>82.0969789453345</v>
       </c>
       <c r="N17" t="n">
-        <v>140.8362807416985</v>
+        <v>158.0558660069057</v>
       </c>
       <c r="O17" t="n">
-        <v>209.8600024913428</v>
+        <v>234.0147530684768</v>
       </c>
       <c r="P17" t="n">
-        <v>278.8837242409871</v>
+        <v>306.9045941881664</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.8837242409871</v>
+        <v>306.9045941881664</v>
       </c>
       <c r="R17" t="n">
-        <v>278.8837242409871</v>
+        <v>229.4034340396395</v>
       </c>
       <c r="S17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="T17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="U17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="V17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="W17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="X17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
       <c r="Y17" t="n">
-        <v>278.8837242409871</v>
+        <v>151.9022738911126</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.0333584627108</v>
+        <v>132.9698509064418</v>
       </c>
       <c r="C18" t="n">
-        <v>124.8396285463692</v>
+        <v>132.9698509064418</v>
       </c>
       <c r="D18" t="n">
-        <v>124.8396285463692</v>
+        <v>132.9698509064418</v>
       </c>
       <c r="E18" t="n">
-        <v>124.8396285463692</v>
+        <v>132.9698509064418</v>
       </c>
       <c r="F18" t="n">
-        <v>124.8396285463692</v>
+        <v>132.9698509064418</v>
       </c>
       <c r="G18" t="n">
-        <v>54.41444565723106</v>
+        <v>132.9698509064418</v>
       </c>
       <c r="H18" t="n">
-        <v>54.41444565723106</v>
+        <v>58.01921817031396</v>
       </c>
       <c r="I18" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="J18" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="K18" t="n">
-        <v>74.60139623446405</v>
+        <v>9.633374490123543</v>
       </c>
       <c r="L18" t="n">
-        <v>74.60139623446405</v>
+        <v>9.633374490123543</v>
       </c>
       <c r="M18" t="n">
-        <v>143.6251179841084</v>
+        <v>9.633374490123543</v>
       </c>
       <c r="N18" t="n">
-        <v>209.8600024913428</v>
+        <v>85.59226155169472</v>
       </c>
       <c r="O18" t="n">
-        <v>278.8837242409871</v>
+        <v>161.5511486132659</v>
       </c>
       <c r="P18" t="n">
-        <v>278.8837242409871</v>
+        <v>237.5100356748371</v>
       </c>
       <c r="Q18" t="n">
-        <v>278.8837242409871</v>
+        <v>306.9045941881664</v>
       </c>
       <c r="R18" t="n">
-        <v>278.8837242409871</v>
+        <v>287.9721712034955</v>
       </c>
       <c r="S18" t="n">
-        <v>208.458541351849</v>
+        <v>287.9721712034955</v>
       </c>
       <c r="T18" t="n">
-        <v>208.458541351849</v>
+        <v>287.9721712034955</v>
       </c>
       <c r="U18" t="n">
-        <v>138.0333584627108</v>
+        <v>287.9721712034955</v>
       </c>
       <c r="V18" t="n">
-        <v>138.0333584627108</v>
+        <v>287.9721712034955</v>
       </c>
       <c r="W18" t="n">
-        <v>138.0333584627108</v>
+        <v>210.4710110549686</v>
       </c>
       <c r="X18" t="n">
-        <v>138.0333584627108</v>
+        <v>132.9698509064418</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.0333584627108</v>
+        <v>132.9698509064418</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.4280402630961</v>
+        <v>83.63925203229019</v>
       </c>
       <c r="C19" t="n">
-        <v>146.4280402630961</v>
+        <v>83.63925203229019</v>
       </c>
       <c r="D19" t="n">
-        <v>146.4280402630961</v>
+        <v>83.63925203229019</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4280402630961</v>
+        <v>83.63925203229019</v>
       </c>
       <c r="F19" t="n">
-        <v>146.4280402630961</v>
+        <v>83.63925203229019</v>
       </c>
       <c r="G19" t="n">
-        <v>146.4280402630961</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00285737395791</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="I19" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="J19" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763328</v>
       </c>
       <c r="K19" t="n">
-        <v>5.577674484819743</v>
+        <v>21.74526962559196</v>
       </c>
       <c r="L19" t="n">
-        <v>73.5295465893533</v>
+        <v>86.71336928275758</v>
       </c>
       <c r="M19" t="n">
-        <v>112.7175847815755</v>
+        <v>162.6722563443288</v>
       </c>
       <c r="N19" t="n">
-        <v>175.9631797402021</v>
+        <v>238.6311434058999</v>
       </c>
       <c r="O19" t="n">
-        <v>240.940203471922</v>
+        <v>271.9448458664692</v>
       </c>
       <c r="P19" t="n">
-        <v>278.8837242409871</v>
+        <v>306.9045941881664</v>
       </c>
       <c r="Q19" t="n">
-        <v>278.8837242409871</v>
+        <v>306.9045941881664</v>
       </c>
       <c r="R19" t="n">
-        <v>208.458541351849</v>
+        <v>229.4034340396395</v>
       </c>
       <c r="S19" t="n">
-        <v>208.458541351849</v>
+        <v>161.1404121808171</v>
       </c>
       <c r="T19" t="n">
-        <v>208.458541351849</v>
+        <v>161.1404121808171</v>
       </c>
       <c r="U19" t="n">
-        <v>146.4280402630961</v>
+        <v>83.63925203229019</v>
       </c>
       <c r="V19" t="n">
-        <v>146.4280402630961</v>
+        <v>83.63925203229019</v>
       </c>
       <c r="W19" t="n">
-        <v>146.4280402630961</v>
+        <v>83.63925203229019</v>
       </c>
       <c r="X19" t="n">
-        <v>146.4280402630961</v>
+        <v>83.63925203229019</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.4280402630961</v>
+        <v>83.63925203229019</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>500.5820555921081</v>
+        <v>261.6936071920254</v>
       </c>
       <c r="C20" t="n">
-        <v>500.5820555921081</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>500.5820555921081</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>500.5820555921081</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>257.133278948008</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>854.1370660657657</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>684.468540615748</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>500.5820555921081</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>500.5820555921081</v>
+        <v>748.5911604802255</v>
       </c>
       <c r="V20" t="n">
-        <v>500.5820555921081</v>
+        <v>505.1423838361255</v>
       </c>
       <c r="W20" t="n">
-        <v>500.5820555921081</v>
+        <v>261.6936071920254</v>
       </c>
       <c r="X20" t="n">
-        <v>500.5820555921081</v>
+        <v>261.6936071920254</v>
       </c>
       <c r="Y20" t="n">
-        <v>500.5820555921081</v>
+        <v>261.6936071920254</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.08333438043</v>
+        <v>338.2254275930849</v>
       </c>
       <c r="C21" t="n">
-        <v>105.08333438043</v>
+        <v>338.2254275930849</v>
       </c>
       <c r="D21" t="n">
-        <v>105.08333438043</v>
+        <v>227.7095207881265</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7095207881265</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>119.5934656713043</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5832,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>829.058313817598</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>665.2902220326569</v>
       </c>
       <c r="U21" t="n">
-        <v>777.2963952174575</v>
+        <v>665.2902220326569</v>
       </c>
       <c r="V21" t="n">
-        <v>777.2963952174575</v>
+        <v>665.2902220326569</v>
       </c>
       <c r="W21" t="n">
-        <v>564.5218964596882</v>
+        <v>449.4713681607481</v>
       </c>
       <c r="X21" t="n">
-        <v>398.1332542245875</v>
+        <v>338.2254275930849</v>
       </c>
       <c r="Y21" t="n">
-        <v>231.8358134300658</v>
+        <v>338.2254275930849</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>610.4394056748215</v>
+        <v>240.4738703923558</v>
       </c>
       <c r="C22" t="n">
-        <v>610.4394056748215</v>
+        <v>240.4738703923558</v>
       </c>
       <c r="D22" t="n">
-        <v>610.4394056748215</v>
+        <v>128.775733836313</v>
       </c>
       <c r="E22" t="n">
-        <v>610.4394056748215</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>610.4394056748215</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>610.4394056748215</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>610.4394056748215</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>610.4394056748215</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>610.4394056748215</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>629.030355864018</v>
+        <v>34.88832085204136</v>
       </c>
       <c r="L22" t="n">
-        <v>696.9822279685516</v>
+        <v>99.85642050920698</v>
       </c>
       <c r="M22" t="n">
-        <v>776.8080132575943</v>
+        <v>176.6984333508818</v>
       </c>
       <c r="N22" t="n">
-        <v>861.1366110098512</v>
+        <v>258.0432586557708</v>
       </c>
       <c r="O22" t="n">
-        <v>926.1136347415711</v>
+        <v>320.0365099401227</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>354.9962582618199</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>354.9962582618199</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>354.9962582618199</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>240.4738703923558</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>240.4738703923558</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>240.4738703923558</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>240.4738703923558</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>240.4738703923558</v>
       </c>
       <c r="X22" t="n">
-        <v>777.5304625830511</v>
+        <v>240.4738703923558</v>
       </c>
       <c r="Y22" t="n">
-        <v>610.4394056748215</v>
+        <v>240.4738703923558</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.8514772825248</v>
+        <v>680.3621021990957</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>680.3621021990957</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>680.3621021990957</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>680.3621021990957</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>680.3621021990957</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>436.9133255549956</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>193.4645489108955</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>780.1706704869963</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>567.7490305707249</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>324.3002539266249</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>80.8514772825248</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>80.8514772825248</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>80.8514772825248</v>
+        <v>680.3621021990957</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>293.5270881818363</v>
+        <v>601.0917130405974</v>
       </c>
       <c r="C24" t="n">
-        <v>293.5270881818363</v>
+        <v>465.0571866157633</v>
       </c>
       <c r="D24" t="n">
-        <v>293.5270881818363</v>
+        <v>354.5412798108049</v>
       </c>
       <c r="E24" t="n">
-        <v>293.5270881818363</v>
+        <v>354.5412798108049</v>
       </c>
       <c r="F24" t="n">
-        <v>188.4553881791535</v>
+        <v>246.4252246939827</v>
       </c>
       <c r="G24" t="n">
-        <v>91.18742073220119</v>
+        <v>146.1129021328911</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>71.16226939676335</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>904.3504840339541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>772.3959974550552</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>772.3959974550552</v>
+        <v>800.2890637256951</v>
       </c>
       <c r="U24" t="n">
-        <v>772.3959974550552</v>
+        <v>610.4839483183771</v>
       </c>
       <c r="V24" t="n">
-        <v>772.3959974550552</v>
+        <v>610.4839483183771</v>
       </c>
       <c r="W24" t="n">
-        <v>586.6682094665728</v>
+        <v>610.4839483183771</v>
       </c>
       <c r="X24" t="n">
-        <v>420.2795672314722</v>
+        <v>610.4839483183771</v>
       </c>
       <c r="Y24" t="n">
-        <v>420.2795672314722</v>
+        <v>610.4839483183771</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>186.3722000184425</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="C25" t="n">
-        <v>186.3722000184425</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="D25" t="n">
-        <v>77.71841857653894</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="K25" t="n">
-        <v>37.8720932994093</v>
+        <v>643.9492181008577</v>
       </c>
       <c r="L25" t="n">
-        <v>105.8239654039429</v>
+        <v>708.9173177580233</v>
       </c>
       <c r="M25" t="n">
-        <v>185.6497506929856</v>
+        <v>785.7593305996982</v>
       </c>
       <c r="N25" t="n">
-        <v>269.9783484452425</v>
+        <v>867.1041559045871</v>
       </c>
       <c r="O25" t="n">
-        <v>334.9553721769624</v>
+        <v>929.097407188939</v>
       </c>
       <c r="P25" t="n">
-        <v>372.8988929460276</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>372.8988929460276</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>372.8988929460276</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>372.8988929460276</v>
+        <v>776.1962664103914</v>
       </c>
       <c r="T25" t="n">
-        <v>372.8988929460276</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="U25" t="n">
-        <v>372.8988929460276</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="V25" t="n">
-        <v>372.8988929460276</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="W25" t="n">
-        <v>372.8988929460276</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="X25" t="n">
-        <v>186.3722000184425</v>
+        <v>628.3420403590291</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.3722000184425</v>
+        <v>628.3420403590291</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>143.094623636605</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>143.094623636605</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>143.094623636605</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6224,7 +6224,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K26" t="n">
         <v>122.2961490211351</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>873.4409535689052</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>873.4409535689052</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>873.4409535689052</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>873.4409535689052</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>873.4409535689052</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>629.9921769248051</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>386.543400280705</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>386.543400280705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>350.3424078068982</v>
+        <v>353.3159735293692</v>
       </c>
       <c r="C27" t="n">
-        <v>235.6979061182724</v>
+        <v>353.3159735293692</v>
       </c>
       <c r="D27" t="n">
-        <v>146.5720240495224</v>
+        <v>265.1483093416896</v>
       </c>
       <c r="E27" t="n">
-        <v>146.5720240495224</v>
+        <v>265.1483093416896</v>
       </c>
       <c r="F27" t="n">
-        <v>146.5720240495224</v>
+        <v>179.3804968421463</v>
       </c>
       <c r="G27" t="n">
-        <v>72.84175111013215</v>
+        <v>101.4164168983335</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>48.81402677948453</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6309,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>922.6961536560232</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>809.0873366991933</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>666.7092696504606</v>
+        <v>948.3134843538387</v>
       </c>
       <c r="U27" t="n">
-        <v>498.2941789793509</v>
+        <v>948.3134843538387</v>
       </c>
       <c r="V27" t="n">
-        <v>498.2941789793509</v>
+        <v>948.3134843538387</v>
       </c>
       <c r="W27" t="n">
-        <v>498.2941789793509</v>
+        <v>754.8428730992088</v>
       </c>
       <c r="X27" t="n">
-        <v>498.2941789793509</v>
+        <v>607.7581183672477</v>
       </c>
       <c r="Y27" t="n">
-        <v>350.3424078068982</v>
+        <v>460.7645650758654</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>216.8004745033119</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>108.6310370489767</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6385,49 +6385,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>55.85268409599917</v>
+        <v>56.79183344123634</v>
       </c>
       <c r="L28" t="n">
-        <v>141.7851469971226</v>
+        <v>143.6634456875969</v>
       </c>
       <c r="M28" t="n">
-        <v>239.5915230827553</v>
+        <v>242.4089711184668</v>
       </c>
       <c r="N28" t="n">
-        <v>341.900711631602</v>
+        <v>345.6573090125507</v>
       </c>
       <c r="O28" t="n">
-        <v>424.8583261599118</v>
+        <v>429.5540728860976</v>
       </c>
       <c r="P28" t="n">
-        <v>480.7824377255668</v>
+        <v>486.4173337969898</v>
       </c>
       <c r="Q28" t="n">
-        <v>480.7824377255668</v>
+        <v>486.4173337969898</v>
       </c>
       <c r="R28" t="n">
-        <v>480.7824377255668</v>
+        <v>486.4173337969898</v>
       </c>
       <c r="S28" t="n">
-        <v>480.7824377255668</v>
+        <v>486.4173337969898</v>
       </c>
       <c r="T28" t="n">
-        <v>480.7824377255668</v>
+        <v>486.4173337969898</v>
       </c>
       <c r="U28" t="n">
-        <v>480.7824377255668</v>
+        <v>486.4173337969898</v>
       </c>
       <c r="V28" t="n">
-        <v>480.7824377255668</v>
+        <v>486.4173337969898</v>
       </c>
       <c r="W28" t="n">
-        <v>470.2861552044961</v>
+        <v>337.6821938599799</v>
       </c>
       <c r="X28" t="n">
-        <v>302.1051318989801</v>
+        <v>337.6821938599799</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.1210803479512</v>
+        <v>337.6821938599799</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="D29" t="n">
-        <v>477.7394820553692</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="E29" t="n">
-        <v>234.2907054112691</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="F29" t="n">
-        <v>234.2907054112691</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="G29" t="n">
-        <v>234.2907054112691</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6461,7 +6461,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K29" t="n">
         <v>122.2961490211351</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>854.1046143121475</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>210.1874114706286</v>
+        <v>210.1874114706287</v>
       </c>
       <c r="C30" t="n">
-        <v>151.131183985085</v>
+        <v>151.1311839850851</v>
       </c>
       <c r="D30" t="n">
         <v>117.5935761194174</v>
       </c>
       <c r="E30" t="n">
-        <v>73.7529229095453</v>
+        <v>73.75292290954533</v>
       </c>
       <c r="F30" t="n">
-        <v>42.61516673201375</v>
+        <v>42.61516673201376</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6576,13 +6576,13 @@
         <v>706.4200034432106</v>
       </c>
       <c r="V30" t="n">
-        <v>586.664697007051</v>
+        <v>586.6646970070512</v>
       </c>
       <c r="W30" t="n">
-        <v>447.824142074433</v>
+        <v>447.8241420744331</v>
       </c>
       <c r="X30" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644838</v>
       </c>
       <c r="Y30" t="n">
         <v>263.0059466951132</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.7366649072674</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>103.7366649072674</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>103.7366649072674</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>71.22037312045781</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>71.22037312045781</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>39.95596023455803</v>
+        <v>39.95596023455802</v>
       </c>
       <c r="K31" t="n">
-        <v>131.0095687667854</v>
+        <v>131.0095687667853</v>
       </c>
       <c r="L31" t="n">
         <v>271.4240992143497</v>
@@ -6631,40 +6631,40 @@
         <v>423.7125428464232</v>
       </c>
       <c r="N31" t="n">
-        <v>580.5037989417109</v>
+        <v>580.5037989417108</v>
       </c>
       <c r="O31" t="n">
-        <v>717.9434810164615</v>
+        <v>717.9434810164614</v>
       </c>
       <c r="P31" t="n">
-        <v>828.3496601285574</v>
+        <v>828.3496601285573</v>
       </c>
       <c r="Q31" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="R31" t="n">
-        <v>856.1496427492314</v>
+        <v>792.4622108305019</v>
       </c>
       <c r="S31" t="n">
-        <v>745.2670525882772</v>
+        <v>681.5796206695477</v>
       </c>
       <c r="T31" t="n">
-        <v>630.4157842542834</v>
+        <v>681.5796206695477</v>
       </c>
       <c r="U31" t="n">
-        <v>456.6014452857347</v>
+        <v>507.7652817009989</v>
       </c>
       <c r="V31" t="n">
-        <v>456.6014452857347</v>
+        <v>368.4775952906955</v>
       </c>
       <c r="W31" t="n">
-        <v>282.5810770443575</v>
+        <v>237.2696695605932</v>
       </c>
       <c r="X31" t="n">
-        <v>169.9883279419237</v>
+        <v>124.6769204581594</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.9883279419237</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6740,10 +6740,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>733.6857351238064</v>
       </c>
     </row>
     <row r="33">
@@ -6756,16 +6756,16 @@
         <v>210.1874114706289</v>
       </c>
       <c r="C33" t="n">
-        <v>151.1311839850854</v>
+        <v>151.1311839850853</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5935761194176</v>
+        <v>117.5935761194174</v>
       </c>
       <c r="E33" t="n">
-        <v>73.75292290954553</v>
+        <v>73.75292290954532</v>
       </c>
       <c r="F33" t="n">
-        <v>42.61516673201373</v>
+        <v>42.61516673201375</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,13 +6780,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
         <v>656.0584510084244</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>176.6101814829085</v>
+        <v>262.3943833274892</v>
       </c>
       <c r="C34" t="n">
-        <v>176.6101814829085</v>
+        <v>262.3943833274892</v>
       </c>
       <c r="D34" t="n">
-        <v>141.8903438661563</v>
+        <v>227.6745457107369</v>
       </c>
       <c r="E34" t="n">
-        <v>109.3740520793467</v>
+        <v>195.1582539239272</v>
       </c>
       <c r="F34" t="n">
-        <v>109.3740520793467</v>
+        <v>163.6651082216003</v>
       </c>
       <c r="G34" t="n">
         <v>109.3740520793467</v>
       </c>
       <c r="H34" t="n">
-        <v>60.90502305933459</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>39.95596023455803</v>
+        <v>39.95596023455802</v>
       </c>
       <c r="K34" t="n">
-        <v>131.0095687667854</v>
+        <v>131.0095687667853</v>
       </c>
       <c r="L34" t="n">
         <v>271.4240992143497</v>
@@ -6868,40 +6868,40 @@
         <v>423.7125428464232</v>
       </c>
       <c r="N34" t="n">
-        <v>580.5037989417109</v>
+        <v>580.5037989417108</v>
       </c>
       <c r="O34" t="n">
-        <v>717.9434810164615</v>
+        <v>717.9434810164614</v>
       </c>
       <c r="P34" t="n">
-        <v>828.3496601285574</v>
+        <v>828.3496601285573</v>
       </c>
       <c r="Q34" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="R34" t="n">
-        <v>792.4622108305023</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="S34" t="n">
-        <v>714.9893257122424</v>
+        <v>745.267052588277</v>
       </c>
       <c r="T34" t="n">
-        <v>600.1380573782486</v>
+        <v>630.4157842542832</v>
       </c>
       <c r="U34" t="n">
-        <v>600.1380573782486</v>
+        <v>608.0621919514692</v>
       </c>
       <c r="V34" t="n">
-        <v>460.8503709679453</v>
+        <v>608.0621919514692</v>
       </c>
       <c r="W34" t="n">
-        <v>460.8503709679453</v>
+        <v>434.041823710092</v>
       </c>
       <c r="X34" t="n">
-        <v>348.2576218655114</v>
+        <v>434.041823710092</v>
       </c>
       <c r="Y34" t="n">
-        <v>242.8618445175647</v>
+        <v>328.6460463621454</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>505.5988165654798</v>
+        <v>192.2143237574835</v>
       </c>
       <c r="C35" t="n">
-        <v>505.5988165654798</v>
+        <v>192.2143237574835</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>192.2143237574835</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>868.3225738857699</v>
+        <v>765.8414091072466</v>
       </c>
       <c r="T35" t="n">
-        <v>758.3700326872813</v>
+        <v>765.8414091072466</v>
       </c>
       <c r="U35" t="n">
-        <v>619.8823365961613</v>
+        <v>627.3537130161264</v>
       </c>
       <c r="V35" t="n">
-        <v>619.8823365961613</v>
+        <v>627.3537130161264</v>
       </c>
       <c r="W35" t="n">
-        <v>619.8823365961613</v>
+        <v>409.784018386805</v>
       </c>
       <c r="X35" t="n">
-        <v>619.8823365961613</v>
+        <v>409.784018386805</v>
       </c>
       <c r="Y35" t="n">
-        <v>505.5988165654798</v>
+        <v>409.784018386805</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>210.1874114706286</v>
+        <v>143.4624241318589</v>
       </c>
       <c r="C36" t="n">
-        <v>151.1311839850851</v>
+        <v>84.40619664631532</v>
       </c>
       <c r="D36" t="n">
-        <v>117.5935761194173</v>
+        <v>84.40619664631532</v>
       </c>
       <c r="E36" t="n">
-        <v>73.75292290954529</v>
+        <v>40.56554343644328</v>
       </c>
       <c r="F36" t="n">
-        <v>42.61516673201373</v>
+        <v>40.56554343644328</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>578.9413745125856</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>906.0366127568882</v>
+        <v>803.5554479783652</v>
       </c>
       <c r="T36" t="n">
-        <v>819.2468199112377</v>
+        <v>716.7656551327148</v>
       </c>
       <c r="U36" t="n">
-        <v>706.4200034432102</v>
+        <v>603.9388386646873</v>
       </c>
       <c r="V36" t="n">
-        <v>586.664697007051</v>
+        <v>484.1835322285281</v>
       </c>
       <c r="W36" t="n">
-        <v>447.8241420744329</v>
+        <v>381.0991547356632</v>
       </c>
       <c r="X36" t="n">
-        <v>355.3694436644836</v>
+        <v>288.6444563257139</v>
       </c>
       <c r="Y36" t="n">
-        <v>263.0059466951132</v>
+        <v>196.2809593563434</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>296.4331954275149</v>
+        <v>75.84617647827442</v>
       </c>
       <c r="C37" t="n">
-        <v>242.8938142951914</v>
+        <v>49.7478116014519</v>
       </c>
       <c r="D37" t="n">
-        <v>208.1739766784392</v>
+        <v>49.7478116014519</v>
       </c>
       <c r="E37" t="n">
-        <v>175.6576848916296</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
-        <v>175.6576848916296</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>175.6576848916296</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>127.1886558716175</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
-        <v>127.1886558716175</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>147.8634729959628</v>
+        <v>37.90633693898756</v>
       </c>
       <c r="K37" t="n">
-        <v>238.9170815281902</v>
+        <v>128.9599454712149</v>
       </c>
       <c r="L37" t="n">
-        <v>379.3316119757545</v>
+        <v>269.3744759187792</v>
       </c>
       <c r="M37" t="n">
-        <v>531.620055607828</v>
+        <v>421.6629195508527</v>
       </c>
       <c r="N37" t="n">
-        <v>688.4113117031156</v>
+        <v>578.4541756461404</v>
       </c>
       <c r="O37" t="n">
-        <v>825.8509937778663</v>
+        <v>715.893857720891</v>
       </c>
       <c r="P37" t="n">
-        <v>936.2571728899622</v>
+        <v>826.3000368329868</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>854.1000194536607</v>
       </c>
       <c r="R37" t="n">
-        <v>900.3697235919071</v>
+        <v>790.4125875349315</v>
       </c>
       <c r="S37" t="n">
-        <v>900.3697235919071</v>
+        <v>790.4125875349315</v>
       </c>
       <c r="T37" t="n">
-        <v>785.5184552579133</v>
+        <v>675.5613192009376</v>
       </c>
       <c r="U37" t="n">
-        <v>754.6937531539288</v>
+        <v>501.7469802323889</v>
       </c>
       <c r="V37" t="n">
-        <v>754.6937531539288</v>
+        <v>362.4592938220854</v>
       </c>
       <c r="W37" t="n">
-        <v>580.6733849125517</v>
+        <v>188.4389255807083</v>
       </c>
       <c r="X37" t="n">
-        <v>468.0806358101178</v>
+        <v>75.84617647827442</v>
       </c>
       <c r="Y37" t="n">
-        <v>362.6848584621711</v>
+        <v>75.84617647827442</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>733.1058552908733</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C38" t="n">
-        <v>733.1058552908733</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D38" t="n">
-        <v>490.2369584797062</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
-        <v>246.7881818356062</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>246.7881818356062</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>246.7881818356062</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>928.071009890917</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>832.3364282660507</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>832.3364282660507</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U38" t="n">
-        <v>832.3364282660507</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V38" t="n">
-        <v>832.3364282660507</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W38" t="n">
-        <v>832.3364282660507</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="X38" t="n">
-        <v>733.1058552908733</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y38" t="n">
-        <v>733.1058552908733</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>210.1874114706289</v>
+        <v>153.6660083757257</v>
       </c>
       <c r="C39" t="n">
-        <v>151.1311839850851</v>
+        <v>94.60978089018211</v>
       </c>
       <c r="D39" t="n">
-        <v>117.5935761194173</v>
+        <v>61.0721730245143</v>
       </c>
       <c r="E39" t="n">
-        <v>73.75292290954529</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>42.61516673201373</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>906.0366127568885</v>
+        <v>803.5554479783652</v>
       </c>
       <c r="T39" t="n">
-        <v>819.246819911238</v>
+        <v>716.7656551327148</v>
       </c>
       <c r="U39" t="n">
-        <v>706.4200034432106</v>
+        <v>603.9388386646873</v>
       </c>
       <c r="V39" t="n">
-        <v>586.6646970070514</v>
+        <v>484.1835322285281</v>
       </c>
       <c r="W39" t="n">
-        <v>447.8241420744332</v>
+        <v>345.3429772959099</v>
       </c>
       <c r="X39" t="n">
-        <v>355.3694436644839</v>
+        <v>252.8882788859606</v>
       </c>
       <c r="Y39" t="n">
-        <v>263.0059466951134</v>
+        <v>206.4845436002102</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>315.9337644598126</v>
+        <v>178.6077642151667</v>
       </c>
       <c r="C40" t="n">
-        <v>262.3943833274891</v>
+        <v>125.0683830828433</v>
       </c>
       <c r="D40" t="n">
-        <v>227.6745457107368</v>
+        <v>90.34854546609102</v>
       </c>
       <c r="E40" t="n">
-        <v>195.1582539239272</v>
+        <v>90.34854546609102</v>
       </c>
       <c r="F40" t="n">
-        <v>163.6651082216003</v>
+        <v>58.85539976376414</v>
       </c>
       <c r="G40" t="n">
-        <v>109.3740520793467</v>
+        <v>58.85539976376414</v>
       </c>
       <c r="H40" t="n">
-        <v>60.90502305933459</v>
+        <v>58.85539976376414</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J40" t="n">
-        <v>39.95596023455803</v>
+        <v>37.90633693898756</v>
       </c>
       <c r="K40" t="n">
-        <v>131.0095687667854</v>
+        <v>128.9599454712149</v>
       </c>
       <c r="L40" t="n">
-        <v>271.4240992143497</v>
+        <v>269.3744759187792</v>
       </c>
       <c r="M40" t="n">
-        <v>423.7125428464232</v>
+        <v>421.6629195508527</v>
       </c>
       <c r="N40" t="n">
-        <v>580.5037989417109</v>
+        <v>578.4541756461404</v>
       </c>
       <c r="O40" t="n">
-        <v>717.9434810164615</v>
+        <v>715.893857720891</v>
       </c>
       <c r="P40" t="n">
-        <v>828.3496601285574</v>
+        <v>826.3000368329868</v>
       </c>
       <c r="Q40" t="n">
-        <v>856.1496427492314</v>
+        <v>854.1000194536607</v>
       </c>
       <c r="R40" t="n">
-        <v>856.1496427492314</v>
+        <v>790.4125875349315</v>
       </c>
       <c r="S40" t="n">
-        <v>745.2670525882772</v>
+        <v>679.5299973739773</v>
       </c>
       <c r="T40" t="n">
-        <v>630.4157842542834</v>
+        <v>604.3025386964528</v>
       </c>
       <c r="U40" t="n">
-        <v>521.4731139047722</v>
+        <v>430.488199727904</v>
       </c>
       <c r="V40" t="n">
-        <v>382.1854274944688</v>
+        <v>291.2005133176006</v>
       </c>
       <c r="W40" t="n">
-        <v>382.1854274944688</v>
+        <v>291.2005133176006</v>
       </c>
       <c r="X40" t="n">
-        <v>382.1854274944688</v>
+        <v>178.6077642151667</v>
       </c>
       <c r="Y40" t="n">
-        <v>382.1854274944688</v>
+        <v>178.6077642151667</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.543948011075</v>
+        <v>522.1028474712411</v>
       </c>
       <c r="C41" t="n">
-        <v>13.70346862539298</v>
+        <v>522.1028474712411</v>
       </c>
       <c r="D41" t="n">
-        <v>13.70346862539298</v>
+        <v>522.1028474712411</v>
       </c>
       <c r="E41" t="n">
-        <v>13.70346862539298</v>
+        <v>356.155230975668</v>
       </c>
       <c r="F41" t="n">
-        <v>13.70346862539298</v>
+        <v>356.155230975668</v>
       </c>
       <c r="G41" t="n">
-        <v>13.70346862539298</v>
+        <v>190.2076144800948</v>
       </c>
       <c r="H41" t="n">
-        <v>13.70346862539298</v>
+        <v>24.25999798452159</v>
       </c>
       <c r="I41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K41" t="n">
-        <v>116.7184745363153</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="L41" t="n">
-        <v>286.2988987755535</v>
+        <v>175.7883101537606</v>
       </c>
       <c r="M41" t="n">
-        <v>455.8793230147916</v>
+        <v>255.6522969604595</v>
       </c>
       <c r="N41" t="n">
-        <v>595.5133759775981</v>
+        <v>418.2975558877707</v>
       </c>
       <c r="O41" t="n">
-        <v>595.5133759775981</v>
+        <v>567.4925060304188</v>
       </c>
       <c r="P41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="Q41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="T41" t="n">
-        <v>685.1734312696491</v>
+        <v>522.1028474712411</v>
       </c>
       <c r="U41" t="n">
-        <v>525.5911355209988</v>
+        <v>522.1028474712411</v>
       </c>
       <c r="V41" t="n">
-        <v>525.5911355209988</v>
+        <v>522.1028474712411</v>
       </c>
       <c r="W41" t="n">
-        <v>525.5911355209988</v>
+        <v>522.1028474712411</v>
       </c>
       <c r="X41" t="n">
-        <v>352.5675417660369</v>
+        <v>522.1028474712411</v>
       </c>
       <c r="Y41" t="n">
-        <v>179.543948011075</v>
+        <v>522.1028474712411</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>264.2144158604249</v>
+        <v>206.6720202341349</v>
       </c>
       <c r="C42" t="n">
-        <v>184.0635887173512</v>
+        <v>122.5186200958514</v>
       </c>
       <c r="D42" t="n">
-        <v>129.4313811941532</v>
+        <v>63.88383957744369</v>
       </c>
       <c r="E42" t="n">
-        <v>129.4313811941532</v>
+        <v>36.21255767602656</v>
       </c>
       <c r="F42" t="n">
-        <v>77.19902535909152</v>
+        <v>36.21255767602656</v>
       </c>
       <c r="G42" t="n">
-        <v>32.77040207976034</v>
+        <v>36.21255767602656</v>
       </c>
       <c r="H42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="I42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K42" t="n">
-        <v>139.0610286832304</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="L42" t="n">
-        <v>308.6414529224685</v>
+        <v>169.216784540536</v>
       </c>
       <c r="M42" t="n">
-        <v>308.6414529224685</v>
+        <v>331.8620434678472</v>
       </c>
       <c r="N42" t="n">
-        <v>446.1984485170816</v>
+        <v>494.5073023951585</v>
       </c>
       <c r="O42" t="n">
-        <v>615.7788727563197</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="P42" t="n">
-        <v>615.7788727563197</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="Q42" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R42" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S42" t="n">
-        <v>606.0582888583713</v>
+        <v>574.0348459159821</v>
       </c>
       <c r="T42" t="n">
-        <v>606.0582888583713</v>
+        <v>462.1478804175917</v>
       </c>
       <c r="U42" t="n">
-        <v>472.1368727328136</v>
+        <v>324.2238912968243</v>
       </c>
       <c r="V42" t="n">
-        <v>331.2869666391242</v>
+        <v>324.2238912968243</v>
       </c>
       <c r="W42" t="n">
-        <v>331.2869666391242</v>
+        <v>324.2238912968243</v>
       </c>
       <c r="X42" t="n">
-        <v>264.2144158604249</v>
+        <v>206.6720202341349</v>
       </c>
       <c r="Y42" t="n">
-        <v>264.2144158604249</v>
+        <v>206.6720202341349</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="C43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="D43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="E43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="F43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="G43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="H43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="I43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J43" t="n">
-        <v>13.70346862539297</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K43" t="n">
-        <v>84.08226003327491</v>
+        <v>79.59892084172634</v>
       </c>
       <c r="L43" t="n">
-        <v>203.8219733564939</v>
+        <v>195.4157123723402</v>
       </c>
       <c r="M43" t="n">
-        <v>335.4355998642221</v>
+        <v>323.1064170874633</v>
       </c>
       <c r="N43" t="n">
-        <v>471.5520388351646</v>
+        <v>455.2999342658006</v>
       </c>
       <c r="O43" t="n">
-        <v>588.3169037855698</v>
+        <v>568.1418774236008</v>
       </c>
       <c r="P43" t="n">
-        <v>678.0482657733205</v>
+        <v>653.9503176187462</v>
       </c>
       <c r="Q43" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R43" t="n">
-        <v>685.1734312696491</v>
+        <v>649.371584267373</v>
       </c>
       <c r="S43" t="n">
-        <v>553.1962414511647</v>
+        <v>649.371584267373</v>
       </c>
       <c r="T43" t="n">
-        <v>417.2503734596407</v>
+        <v>509.4231432806392</v>
       </c>
       <c r="U43" t="n">
-        <v>244.2267797046788</v>
+        <v>343.475526785066</v>
       </c>
       <c r="V43" t="n">
-        <v>83.84449363684527</v>
+        <v>179.0906677220226</v>
       </c>
       <c r="W43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="X43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
     </row>
     <row r="44">
@@ -8693,19 +8693,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8778,16 +8778,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
@@ -9012,19 +9012,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9167,19 +9167,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>302.6703387146685</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>307.0723817743143</v>
       </c>
       <c r="N17" t="n">
-        <v>299.1339946568377</v>
+        <v>306.1392121436325</v>
       </c>
       <c r="O17" t="n">
-        <v>299.8191424819335</v>
+        <v>306.8243599687283</v>
       </c>
       <c r="P17" t="n">
-        <v>300.9539268155163</v>
+        <v>304.8590978963701</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>207.5623700346058</v>
+        <v>141.3720274656319</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>211.8549649822651</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>198.2456358280146</v>
+        <v>208.0678606303749</v>
       </c>
       <c r="O18" t="n">
-        <v>212.3171755046912</v>
+        <v>219.322392991486</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>210.7005559613718</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,13 +9726,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9966,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10194,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10668,22 +10668,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>267.937408331361</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>283.1274823473447</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>152.5681426542525</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>407.0597727873995</v>
+        <v>400.0545553006046</v>
       </c>
       <c r="M41" t="n">
-        <v>401.639591044685</v>
+        <v>311.0169269714129</v>
       </c>
       <c r="N41" t="n">
-        <v>370.4575615388197</v>
+        <v>393.7012039272083</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>309.8477375972865</v>
+        <v>296.2046154506687</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>306.4221742526357</v>
       </c>
       <c r="N42" t="n">
-        <v>270.2881722799122</v>
+        <v>295.6298524139507</v>
       </c>
       <c r="O42" t="n">
-        <v>313.8896022618567</v>
+        <v>306.8843847750619</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>380.0124009283741</v>
+        <v>354.3921097337432</v>
       </c>
       <c r="C11" t="n">
-        <v>362.551451035901</v>
+        <v>336.9311598412702</v>
       </c>
       <c r="D11" t="n">
-        <v>351.9616008855764</v>
+        <v>326.3413096909456</v>
       </c>
       <c r="E11" t="n">
         <v>379.2089293371553</v>
@@ -23315,7 +23315,7 @@
         <v>248.62421217273</v>
       </c>
       <c r="V11" t="n">
-        <v>325.0308177350284</v>
+        <v>302.4644652507976</v>
       </c>
       <c r="W11" t="n">
         <v>346.5195279823065</v>
@@ -23337,10 +23337,10 @@
         <v>163.8117429147608</v>
       </c>
       <c r="C12" t="n">
-        <v>169.9870582532092</v>
+        <v>147.4207057689784</v>
       </c>
       <c r="D12" t="n">
-        <v>144.7236248295322</v>
+        <v>119.1033336349014</v>
       </c>
       <c r="E12" t="n">
         <v>154.9236397202944</v>
@@ -23391,10 +23391,10 @@
         <v>197.4432879597151</v>
       </c>
       <c r="U12" t="n">
-        <v>223.2199413458683</v>
+        <v>197.5996501512375</v>
       </c>
       <c r="V12" t="n">
-        <v>230.0791464143188</v>
+        <v>204.4588552196879</v>
       </c>
       <c r="W12" t="n">
         <v>248.9735424258131</v>
@@ -23431,16 +23431,16 @@
         <v>165.2695386233522</v>
       </c>
       <c r="H13" t="n">
-        <v>159.5057317723331</v>
+        <v>133.8854405777022</v>
       </c>
       <c r="I13" t="n">
-        <v>152.7290341921518</v>
+        <v>127.1087429975209</v>
       </c>
       <c r="J13" t="n">
-        <v>90.63773938156626</v>
+        <v>65.01744818693544</v>
       </c>
       <c r="K13" t="n">
-        <v>19.54805109077634</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>283.5975886213844</v>
       </c>
       <c r="V13" t="n">
-        <v>249.4162025887215</v>
+        <v>246.397901195267</v>
       </c>
       <c r="W13" t="n">
         <v>283.8015576014845</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.6856122727527</v>
+        <v>319.0792326411197</v>
       </c>
       <c r="C14" t="n">
-        <v>324.2246623802797</v>
+        <v>301.6182827486467</v>
       </c>
       <c r="D14" t="n">
-        <v>313.6348122299551</v>
+        <v>294.0823713087221</v>
       </c>
       <c r="E14" t="n">
-        <v>340.8821406815339</v>
+        <v>318.275761049901</v>
       </c>
       <c r="F14" t="n">
-        <v>365.8278163509835</v>
+        <v>368.8417279139815</v>
       </c>
       <c r="G14" t="n">
-        <v>374.2545081244072</v>
+        <v>377.2684196874051</v>
       </c>
       <c r="H14" t="n">
-        <v>298.4265727250393</v>
+        <v>301.4404842880372</v>
       </c>
       <c r="I14" t="n">
-        <v>169.427660179678</v>
+        <v>172.441571742676</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.8208885504218</v>
+        <v>111.8348001134197</v>
       </c>
       <c r="S14" t="n">
-        <v>167.9718401955175</v>
+        <v>170.9857517585154</v>
       </c>
       <c r="T14" t="n">
-        <v>182.0476201734035</v>
+        <v>185.0615317364014</v>
       </c>
       <c r="U14" t="n">
-        <v>210.2974235171086</v>
+        <v>213.3113350801065</v>
       </c>
       <c r="V14" t="n">
-        <v>286.704029079407</v>
+        <v>289.7179406424049</v>
       </c>
       <c r="W14" t="n">
-        <v>308.1927393266851</v>
+        <v>311.206650889683</v>
       </c>
       <c r="X14" t="n">
-        <v>328.6828712877411</v>
+        <v>331.6967828507391</v>
       </c>
       <c r="Y14" t="n">
-        <v>345.1897092653257</v>
+        <v>348.2036208283236</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>125.4849542591395</v>
+        <v>128.4988658221374</v>
       </c>
       <c r="C15" t="n">
-        <v>131.6602695975879</v>
+        <v>109.053889965955</v>
       </c>
       <c r="D15" t="n">
-        <v>106.3968361739109</v>
+        <v>109.4107477369088</v>
       </c>
       <c r="E15" t="n">
-        <v>116.5968510646731</v>
+        <v>119.610762627671</v>
       </c>
       <c r="F15" t="n">
-        <v>104.020983002656</v>
+        <v>107.0348945656539</v>
       </c>
       <c r="G15" t="n">
-        <v>96.29528777248277</v>
+        <v>76.74284685124985</v>
       </c>
       <c r="H15" t="n">
-        <v>71.18721484576858</v>
+        <v>74.2011264087665</v>
       </c>
       <c r="I15" t="n">
-        <v>48.3484034606872</v>
+        <v>51.36231502368512</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.10960476191526</v>
+        <v>62.12351632491318</v>
       </c>
       <c r="S15" t="n">
-        <v>130.63494171311</v>
+        <v>133.6488532761079</v>
       </c>
       <c r="T15" t="n">
-        <v>159.1164993040937</v>
+        <v>136.5101196724608</v>
       </c>
       <c r="U15" t="n">
-        <v>184.8931526902469</v>
+        <v>187.9070642532449</v>
       </c>
       <c r="V15" t="n">
-        <v>191.7523577586974</v>
+        <v>194.7662693216953</v>
       </c>
       <c r="W15" t="n">
-        <v>210.6467537701917</v>
+        <v>213.6606653331897</v>
       </c>
       <c r="X15" t="n">
-        <v>164.7247558127496</v>
+        <v>167.7386673757475</v>
       </c>
       <c r="Y15" t="n">
-        <v>164.6344663865765</v>
+        <v>142.0280867549436</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.7837507912094</v>
+        <v>141.7976623542073</v>
       </c>
       <c r="C16" t="n">
-        <v>126.1985917079</v>
+        <v>129.2125032708979</v>
       </c>
       <c r="D16" t="n">
-        <v>107.5672436274845</v>
+        <v>110.5811551904824</v>
       </c>
       <c r="E16" t="n">
-        <v>105.3857332558413</v>
+        <v>108.3996448188392</v>
       </c>
       <c r="F16" t="n">
-        <v>104.3728186322034</v>
+        <v>107.3867301952013</v>
       </c>
       <c r="G16" t="n">
-        <v>126.9427499677309</v>
+        <v>129.9566615307288</v>
       </c>
       <c r="H16" t="n">
-        <v>121.1789431167117</v>
+        <v>98.5725634850788</v>
       </c>
       <c r="I16" t="n">
-        <v>114.4022455365304</v>
+        <v>91.79586590489751</v>
       </c>
       <c r="J16" t="n">
-        <v>52.3109507259449</v>
+        <v>29.70457109431199</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.11381386096651</v>
+        <v>48.12772542396443</v>
       </c>
       <c r="R16" t="n">
-        <v>136.2451619864416</v>
+        <v>139.2590735494395</v>
       </c>
       <c r="S16" t="n">
-        <v>182.9683686462444</v>
+        <v>185.9822802092423</v>
       </c>
       <c r="T16" t="n">
-        <v>186.8973600375536</v>
+        <v>167.3449191163207</v>
       </c>
       <c r="U16" t="n">
-        <v>245.270799965763</v>
+        <v>248.2847115287609</v>
       </c>
       <c r="V16" t="n">
-        <v>211.0894139331001</v>
+        <v>214.1033254960981</v>
       </c>
       <c r="W16" t="n">
-        <v>245.4747689458631</v>
+        <v>248.4886805088611</v>
       </c>
       <c r="X16" t="n">
-        <v>184.6614259983093</v>
+        <v>187.6753375613072</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.5364239613669</v>
+        <v>180.5503355243648</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.6856122727527</v>
+        <v>344.6995238357506</v>
       </c>
       <c r="C17" t="n">
-        <v>324.2246623802797</v>
+        <v>327.2385739432776</v>
       </c>
       <c r="D17" t="n">
-        <v>313.6348122299551</v>
+        <v>316.648723792953</v>
       </c>
       <c r="E17" t="n">
-        <v>340.8821406815339</v>
+        <v>343.8960522445318</v>
       </c>
       <c r="F17" t="n">
-        <v>304.4176202731182</v>
+        <v>368.8417279139815</v>
       </c>
       <c r="G17" t="n">
-        <v>304.5335770641603</v>
+        <v>300.5422711403635</v>
       </c>
       <c r="H17" t="n">
-        <v>228.7056416647925</v>
+        <v>233.860092647803</v>
       </c>
       <c r="I17" t="n">
-        <v>99.70672911943126</v>
+        <v>172.441571742676</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.8208885504218</v>
+        <v>35.10865156637814</v>
       </c>
       <c r="S17" t="n">
-        <v>167.9718401955175</v>
+        <v>94.2596032114738</v>
       </c>
       <c r="T17" t="n">
-        <v>182.0476201734035</v>
+        <v>185.0615317364014</v>
       </c>
       <c r="U17" t="n">
-        <v>210.2974235171086</v>
+        <v>213.3113350801065</v>
       </c>
       <c r="V17" t="n">
-        <v>286.704029079407</v>
+        <v>289.7179406424049</v>
       </c>
       <c r="W17" t="n">
-        <v>308.1927393266851</v>
+        <v>311.206650889683</v>
       </c>
       <c r="X17" t="n">
-        <v>328.6828712877411</v>
+        <v>331.6967828507391</v>
       </c>
       <c r="Y17" t="n">
-        <v>345.1897092653257</v>
+        <v>348.2036208283236</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23808,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>125.4849542591395</v>
+        <v>128.4988658221374</v>
       </c>
       <c r="C18" t="n">
-        <v>118.5984769804097</v>
+        <v>134.6741811605858</v>
       </c>
       <c r="D18" t="n">
-        <v>106.3968361739109</v>
+        <v>109.4107477369088</v>
       </c>
       <c r="E18" t="n">
-        <v>116.5968510646731</v>
+        <v>119.610762627671</v>
       </c>
       <c r="F18" t="n">
-        <v>104.020983002656</v>
+        <v>107.0348945656539</v>
       </c>
       <c r="G18" t="n">
-        <v>26.57435671223598</v>
+        <v>99.30919933548068</v>
       </c>
       <c r="H18" t="n">
-        <v>71.18721484576858</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.10960476191526</v>
+        <v>43.38041757008905</v>
       </c>
       <c r="S18" t="n">
-        <v>60.91401065286317</v>
+        <v>133.6488532761079</v>
       </c>
       <c r="T18" t="n">
-        <v>159.1164993040937</v>
+        <v>162.1304108670917</v>
       </c>
       <c r="U18" t="n">
-        <v>115.1722216300002</v>
+        <v>187.9070642532449</v>
       </c>
       <c r="V18" t="n">
-        <v>191.7523577586974</v>
+        <v>194.7662693216953</v>
       </c>
       <c r="W18" t="n">
-        <v>210.6467537701917</v>
+        <v>136.9345167861481</v>
       </c>
       <c r="X18" t="n">
-        <v>164.7247558127496</v>
+        <v>91.01251882870594</v>
       </c>
       <c r="Y18" t="n">
-        <v>164.6344663865765</v>
+        <v>167.6483779495744</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.7837507912094</v>
+        <v>141.7976623542073</v>
       </c>
       <c r="C19" t="n">
-        <v>126.1985917079</v>
+        <v>129.2125032708979</v>
       </c>
       <c r="D19" t="n">
-        <v>107.5672436274845</v>
+        <v>110.5811551904824</v>
       </c>
       <c r="E19" t="n">
-        <v>105.3857332558413</v>
+        <v>108.3996448188392</v>
       </c>
       <c r="F19" t="n">
-        <v>104.3728186322034</v>
+        <v>107.3867301952013</v>
       </c>
       <c r="G19" t="n">
-        <v>126.9427499677309</v>
+        <v>53.23051298368722</v>
       </c>
       <c r="H19" t="n">
-        <v>51.45801205646492</v>
+        <v>124.1928546797096</v>
       </c>
       <c r="I19" t="n">
-        <v>44.68131447628363</v>
+        <v>117.4161570995283</v>
       </c>
       <c r="J19" t="n">
-        <v>52.3109507259449</v>
+        <v>55.32486228894282</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.11381386096651</v>
+        <v>48.12772542396443</v>
       </c>
       <c r="R19" t="n">
-        <v>66.52423092619483</v>
+        <v>62.53292500239795</v>
       </c>
       <c r="S19" t="n">
-        <v>182.9683686462444</v>
+        <v>118.4018885690081</v>
       </c>
       <c r="T19" t="n">
-        <v>186.8973600375536</v>
+        <v>189.9112716005515</v>
       </c>
       <c r="U19" t="n">
-        <v>183.8606038878977</v>
+        <v>171.5585629817193</v>
       </c>
       <c r="V19" t="n">
-        <v>211.0894139331001</v>
+        <v>214.1033254960981</v>
       </c>
       <c r="W19" t="n">
-        <v>245.4747689458631</v>
+        <v>248.4886805088611</v>
       </c>
       <c r="X19" t="n">
-        <v>184.6614259983093</v>
+        <v>187.6753375613072</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.5364239613669</v>
+        <v>180.5503355243648</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.6856122727527</v>
+        <v>344.6995238357506</v>
       </c>
       <c r="C20" t="n">
-        <v>324.2246623802797</v>
+        <v>87.25023450228304</v>
       </c>
       <c r="D20" t="n">
-        <v>313.6348122299551</v>
+        <v>316.648723792953</v>
       </c>
       <c r="E20" t="n">
-        <v>340.8821406815339</v>
+        <v>343.8960522445318</v>
       </c>
       <c r="F20" t="n">
-        <v>124.8135274733245</v>
+        <v>368.8417279139815</v>
       </c>
       <c r="G20" t="n">
-        <v>138.7808936449898</v>
+        <v>377.2684196874051</v>
       </c>
       <c r="H20" t="n">
-        <v>298.4265727250393</v>
+        <v>301.4404842880372</v>
       </c>
       <c r="I20" t="n">
-        <v>169.427660179678</v>
+        <v>172.441571742676</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>111.8348001134197</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>170.9857517585154</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>185.0615317364014</v>
       </c>
       <c r="U20" t="n">
-        <v>210.2974235171086</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>286.704029079407</v>
+        <v>48.70365176474587</v>
       </c>
       <c r="W20" t="n">
-        <v>308.1927393266851</v>
+        <v>70.19236201202398</v>
       </c>
       <c r="X20" t="n">
-        <v>328.6828712877411</v>
+        <v>331.6967828507391</v>
       </c>
       <c r="Y20" t="n">
-        <v>345.1897092653257</v>
+        <v>348.2036208283236</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>128.4988658221374</v>
       </c>
       <c r="C21" t="n">
-        <v>131.6602695975879</v>
+        <v>134.6741811605858</v>
       </c>
       <c r="D21" t="n">
-        <v>106.3968361739109</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>31.65268170715802</v>
+        <v>119.610762627671</v>
       </c>
       <c r="F21" t="n">
-        <v>104.020983002656</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>96.29528777248277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>71.18721484576858</v>
+        <v>74.2011264087665</v>
       </c>
       <c r="I21" t="n">
-        <v>48.3484034606872</v>
+        <v>51.36231502368512</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.10960476191526</v>
+        <v>62.12351632491318</v>
       </c>
       <c r="S21" t="n">
-        <v>130.63494171311</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>159.1164993040937</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>187.9070642532449</v>
       </c>
       <c r="V21" t="n">
-        <v>191.7523577586974</v>
+        <v>194.7662693216953</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>57.60518621376093</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>167.6483779495744</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.7837507912094</v>
+        <v>141.7976623542073</v>
       </c>
       <c r="C22" t="n">
-        <v>126.1985917079</v>
+        <v>129.2125032708979</v>
       </c>
       <c r="D22" t="n">
-        <v>107.5672436274845</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>105.3857332558413</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>104.3728186322034</v>
+        <v>107.3867301952013</v>
       </c>
       <c r="G22" t="n">
-        <v>126.9427499677309</v>
+        <v>129.9566615307288</v>
       </c>
       <c r="H22" t="n">
-        <v>121.1789431167117</v>
+        <v>124.1928546797096</v>
       </c>
       <c r="I22" t="n">
-        <v>114.4022455365304</v>
+        <v>117.4161570995283</v>
       </c>
       <c r="J22" t="n">
-        <v>52.3109507259449</v>
+        <v>55.32486228894282</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.11381386096651</v>
+        <v>48.12772542396443</v>
       </c>
       <c r="R22" t="n">
-        <v>136.2451619864416</v>
+        <v>139.2590735494395</v>
       </c>
       <c r="S22" t="n">
-        <v>182.9683686462444</v>
+        <v>72.60511621847286</v>
       </c>
       <c r="T22" t="n">
-        <v>186.8973600375536</v>
+        <v>189.9112716005515</v>
       </c>
       <c r="U22" t="n">
-        <v>245.270799965763</v>
+        <v>248.2847115287609</v>
       </c>
       <c r="V22" t="n">
-        <v>211.0894139331001</v>
+        <v>214.1033254960981</v>
       </c>
       <c r="W22" t="n">
-        <v>245.4747689458631</v>
+        <v>248.4886805088611</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>187.6753375613072</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.11627762221966</v>
+        <v>180.5503355243648</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>341.6856122727527</v>
+        <v>344.6995238357506</v>
       </c>
       <c r="C23" t="n">
-        <v>263.2700315496907</v>
+        <v>327.2385739432776</v>
       </c>
       <c r="D23" t="n">
-        <v>313.6348122299551</v>
+        <v>316.648723792953</v>
       </c>
       <c r="E23" t="n">
-        <v>340.8821406815339</v>
+        <v>343.8960522445318</v>
       </c>
       <c r="F23" t="n">
-        <v>365.8278163509835</v>
+        <v>368.8417279139815</v>
       </c>
       <c r="G23" t="n">
-        <v>374.2545081244072</v>
+        <v>136.254130809746</v>
       </c>
       <c r="H23" t="n">
-        <v>298.4265727250393</v>
+        <v>60.42619541037811</v>
       </c>
       <c r="I23" t="n">
-        <v>169.427660179678</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>108.8208885504218</v>
+        <v>111.8348001134197</v>
       </c>
       <c r="S23" t="n">
-        <v>167.9718401955175</v>
+        <v>170.9857517585154</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>185.0615317364014</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>213.3113350801065</v>
       </c>
       <c r="V23" t="n">
-        <v>45.68974020174795</v>
+        <v>48.70365176474587</v>
       </c>
       <c r="W23" t="n">
-        <v>67.17845044902606</v>
+        <v>311.206650889683</v>
       </c>
       <c r="X23" t="n">
-        <v>328.6828712877411</v>
+        <v>331.6967828507391</v>
       </c>
       <c r="Y23" t="n">
-        <v>345.1897092653257</v>
+        <v>308.3598069275575</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>119.2005528971355</v>
       </c>
       <c r="C24" t="n">
-        <v>131.6602695975879</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>106.3968361739109</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>116.5968510646731</v>
+        <v>119.610762627671</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24303,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>48.3484034606872</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>62.12351632491318</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.6488532761079</v>
       </c>
       <c r="T24" t="n">
-        <v>159.1164993040937</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>184.8931526902469</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>191.7523577586974</v>
+        <v>194.7662693216953</v>
       </c>
       <c r="W24" t="n">
-        <v>26.77624366159415</v>
+        <v>213.6606653331897</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>167.7386673757475</v>
       </c>
       <c r="Y24" t="n">
-        <v>164.6344663865765</v>
+        <v>167.6483779495744</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.7837507912094</v>
+        <v>141.7976623542073</v>
       </c>
       <c r="C25" t="n">
-        <v>126.1985917079</v>
+        <v>129.2125032708979</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.5811551904824</v>
       </c>
       <c r="E25" t="n">
-        <v>47.53283054417835</v>
+        <v>108.3996448188392</v>
       </c>
       <c r="F25" t="n">
-        <v>104.3728186322034</v>
+        <v>107.3867301952013</v>
       </c>
       <c r="G25" t="n">
-        <v>126.9427499677309</v>
+        <v>129.9566615307288</v>
       </c>
       <c r="H25" t="n">
-        <v>121.1789431167117</v>
+        <v>124.1928546797096</v>
       </c>
       <c r="I25" t="n">
-        <v>114.4022455365304</v>
+        <v>117.4161570995283</v>
       </c>
       <c r="J25" t="n">
-        <v>52.3109507259449</v>
+        <v>55.32486228894282</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.11381386096651</v>
+        <v>48.12772542396443</v>
       </c>
       <c r="R25" t="n">
-        <v>136.2451619864416</v>
+        <v>139.2590735494395</v>
       </c>
       <c r="S25" t="n">
-        <v>182.9683686462444</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>186.8973600375536</v>
+        <v>43.53558780970278</v>
       </c>
       <c r="U25" t="n">
-        <v>245.270799965763</v>
+        <v>248.2847115287609</v>
       </c>
       <c r="V25" t="n">
-        <v>211.0894139331001</v>
+        <v>214.1033254960981</v>
       </c>
       <c r="W25" t="n">
-        <v>245.4747689458631</v>
+        <v>248.4886805088611</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>187.6753375613072</v>
       </c>
       <c r="Y25" t="n">
-        <v>177.5364239613669</v>
+        <v>180.5503355243648</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>111.2380137034623</v>
+        <v>81.56047476698552</v>
       </c>
       <c r="C26" t="n">
-        <v>65.04816057677226</v>
+        <v>305.1138137521716</v>
       </c>
       <c r="D26" t="n">
-        <v>295.4725993041067</v>
+        <v>294.523963601847</v>
       </c>
       <c r="E26" t="n">
-        <v>322.7199277556855</v>
+        <v>199.1959463322975</v>
       </c>
       <c r="F26" t="n">
-        <v>106.6513145474761</v>
+        <v>346.7169677228754</v>
       </c>
       <c r="G26" t="n">
-        <v>356.0922951985588</v>
+        <v>355.1436594962991</v>
       </c>
       <c r="H26" t="n">
-        <v>39.25007092153186</v>
+        <v>279.3157240969311</v>
       </c>
       <c r="I26" t="n">
-        <v>151.2654472538297</v>
+        <v>150.3168115515699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>90.65867562457345</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>149.8096272696691</v>
+        <v>148.8609915674093</v>
       </c>
       <c r="T26" t="n">
-        <v>163.8854072475551</v>
+        <v>162.9367715452954</v>
       </c>
       <c r="U26" t="n">
-        <v>192.1352105912603</v>
+        <v>191.1865748890005</v>
       </c>
       <c r="V26" t="n">
-        <v>268.5418161535587</v>
+        <v>267.5931804512989</v>
       </c>
       <c r="W26" t="n">
-        <v>290.0305264008368</v>
+        <v>48.06760182091796</v>
       </c>
       <c r="X26" t="n">
-        <v>310.5206583618928</v>
+        <v>68.55773378197398</v>
       </c>
       <c r="Y26" t="n">
-        <v>327.0274963394774</v>
+        <v>326.0788606372176</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>107.3227413332911</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>112.5494209694797</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>98.43463813882471</v>
+        <v>97.48600243656495</v>
       </c>
       <c r="F27" t="n">
-        <v>85.85877007680764</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>5.140104636638043</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>30.18619053483885</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>39.99875613380714</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>111.5240930850018</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>124.4194162307561</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>165.7823040621388</v>
       </c>
       <c r="V27" t="n">
-        <v>173.590144832849</v>
+        <v>172.6415091305893</v>
       </c>
       <c r="W27" t="n">
-        <v>192.4845408443434</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>146.5625428869012</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24601,28 +24601,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>108.0363787820516</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>89.40503070163612</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>87.22352032999294</v>
+        <v>86.27488462773317</v>
       </c>
       <c r="F28" t="n">
-        <v>86.21060570635501</v>
+        <v>85.26197000409525</v>
       </c>
       <c r="G28" t="n">
-        <v>108.7805370418825</v>
+        <v>107.8319013396228</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0167301908633</v>
+        <v>102.0680944886036</v>
       </c>
       <c r="I28" t="n">
-        <v>96.24003261068205</v>
+        <v>95.29139690842229</v>
       </c>
       <c r="J28" t="n">
-        <v>34.14873780009655</v>
+        <v>33.20010209783678</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.95160093511816</v>
+        <v>26.00296523285839</v>
       </c>
       <c r="R28" t="n">
-        <v>118.0829490605933</v>
+        <v>117.1343133583335</v>
       </c>
       <c r="S28" t="n">
-        <v>164.806155720396</v>
+        <v>163.8575200181363</v>
       </c>
       <c r="T28" t="n">
-        <v>168.7351471117053</v>
+        <v>167.7865114094455</v>
       </c>
       <c r="U28" t="n">
-        <v>227.1085870399147</v>
+        <v>226.1599513376549</v>
       </c>
       <c r="V28" t="n">
-        <v>192.9272010072518</v>
+        <v>191.978565304992</v>
       </c>
       <c r="W28" t="n">
-        <v>216.9212363241548</v>
+        <v>79.11613178011524</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>165.5505773702012</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>158.4255753332588</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24680,25 @@
         <v>268.4910078858529</v>
       </c>
       <c r="C29" t="n">
-        <v>10.01576911572084</v>
+        <v>10.01576911572087</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
-        <v>26.67324741697507</v>
+        <v>267.6875362946341</v>
       </c>
       <c r="F29" t="n">
         <v>292.6332119640838</v>
       </c>
       <c r="G29" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H29" t="n">
-        <v>12.37250166009366</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277829</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>35.62628416352204</v>
+        <v>35.62628416352206</v>
       </c>
       <c r="S29" t="n">
-        <v>94.7772358086177</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T29" t="n">
-        <v>108.8530157865037</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>137.1028191302088</v>
+        <v>17.88812873375112</v>
       </c>
       <c r="V29" t="n">
         <v>213.5094246925073</v>
@@ -24746,7 +24746,7 @@
         <v>255.4882669008414</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.9951048784259</v>
+        <v>271.995104878426</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>65.58914640430967</v>
       </c>
       <c r="C31" t="n">
-        <v>53.0039873210002</v>
+        <v>53.00398732100021</v>
       </c>
       <c r="D31" t="n">
-        <v>34.37263924058472</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F31" t="n">
-        <v>31.17821424530361</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G31" t="n">
-        <v>43.53594902031914</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H31" t="n">
-        <v>47.98433872981194</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.05055759954185</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>137.8948095462003</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>42.38431808616215</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,10 +24920,10 @@
         <v>251.0300579933799</v>
       </c>
       <c r="D32" t="n">
-        <v>28.15482219961331</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
-        <v>26.67324741697507</v>
+        <v>267.6875362946341</v>
       </c>
       <c r="F32" t="n">
         <v>51.61892308642473</v>
@@ -24932,10 +24932,10 @@
         <v>60.04561485984834</v>
       </c>
       <c r="H32" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277829</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.62628416352204</v>
+        <v>35.62628416352206</v>
       </c>
       <c r="S32" t="n">
-        <v>94.7772358086177</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T32" t="n">
         <v>108.8530157865037</v>
       </c>
       <c r="U32" t="n">
-        <v>137.1028191302088</v>
+        <v>137.1028191302089</v>
       </c>
       <c r="V32" t="n">
         <v>213.5094246925073</v>
@@ -24980,10 +24980,10 @@
         <v>234.9981349397854</v>
       </c>
       <c r="X32" t="n">
-        <v>255.4882669008414</v>
+        <v>27.42056071787985</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.9951048784259</v>
+        <v>271.995104878426</v>
       </c>
     </row>
     <row r="33">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.0039873210002</v>
+        <v>53.00398732100021</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.17821424530361</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.05055759954186</v>
       </c>
       <c r="S34" t="n">
-        <v>33.07560799226731</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0761955788632</v>
+        <v>149.9461391990775</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>137.8948095462004</v>
       </c>
       <c r="W34" t="n">
-        <v>172.2801645589633</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>268.4910078858529</v>
+        <v>53.09701020282469</v>
       </c>
       <c r="C35" t="n">
         <v>251.0300579933799</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E35" t="n">
-        <v>267.6875362946341</v>
+        <v>94.45456039122129</v>
       </c>
       <c r="F35" t="n">
-        <v>51.61892308642473</v>
+        <v>292.6332119640838</v>
       </c>
       <c r="G35" t="n">
         <v>301.0599037375074</v>
@@ -25172,7 +25172,7 @@
         <v>225.2319683381395</v>
       </c>
       <c r="I35" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277829</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>35.62628416352204</v>
+        <v>35.62628416352206</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>213.5094246925073</v>
       </c>
       <c r="W35" t="n">
-        <v>234.9981349397854</v>
+        <v>19.60413725675716</v>
       </c>
       <c r="X35" t="n">
         <v>255.4882669008414</v>
       </c>
       <c r="Y35" t="n">
-        <v>158.8544200480512</v>
+        <v>271.995104878426</v>
       </c>
     </row>
     <row r="36">
@@ -25236,13 +25236,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>33.20223178701113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>30.82637861575625</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>35.39861566535578</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>65.58914640430967</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>27.16660609294592</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>31.17821424530361</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G37" t="n">
-        <v>53.74814558083112</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I37" t="n">
-        <v>41.20764114963065</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>141.5597404959186</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>137.8948095462003</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>268.4910078858529</v>
+        <v>53.09701020282469</v>
       </c>
       <c r="C38" t="n">
         <v>251.0300579933799</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E38" t="n">
-        <v>26.67324741697507</v>
+        <v>267.6875362946341</v>
       </c>
       <c r="F38" t="n">
         <v>292.6332119640838</v>
@@ -25406,10 +25406,10 @@
         <v>301.0599037375074</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I38" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277829</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>35.62628416352206</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T38" t="n">
         <v>108.8530157865037</v>
       </c>
       <c r="U38" t="n">
-        <v>137.1028191302088</v>
+        <v>137.1028191302089</v>
       </c>
       <c r="V38" t="n">
         <v>213.5094246925073</v>
       </c>
       <c r="W38" t="n">
-        <v>234.9981349397854</v>
+        <v>45.27910178057414</v>
       </c>
       <c r="X38" t="n">
-        <v>157.2499996554157</v>
+        <v>40.09426921781318</v>
       </c>
       <c r="Y38" t="n">
-        <v>271.9951048784259</v>
+        <v>56.60110719539776</v>
       </c>
     </row>
     <row r="39">
@@ -25479,10 +25479,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>30.82637861575625</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>23.10068338558301</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>45.50016406678387</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.58914640430967</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.05055759954185</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.2275715599046</v>
       </c>
       <c r="U40" t="n">
-        <v>64.22295193284714</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2801645589633</v>
+        <v>172.2801645589634</v>
       </c>
       <c r="X40" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>104.3418195744672</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>289.3746615468078</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C41" t="n">
-        <v>107.7316370625095</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D41" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E41" t="n">
-        <v>288.571189955589</v>
+        <v>128.2455968902293</v>
       </c>
       <c r="F41" t="n">
-        <v>313.5168656250387</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G41" t="n">
-        <v>321.9435573984623</v>
+        <v>161.6179643331025</v>
       </c>
       <c r="H41" t="n">
-        <v>246.1156219990944</v>
+        <v>85.79002893373465</v>
       </c>
       <c r="I41" t="n">
-        <v>117.1167094537331</v>
+        <v>110.0734794284994</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.50993782447691</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S41" t="n">
-        <v>115.6608894695726</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T41" t="n">
-        <v>129.7366694474586</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V41" t="n">
-        <v>234.3930783534621</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W41" t="n">
-        <v>255.8817886007402</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X41" t="n">
-        <v>105.078562744384</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y41" t="n">
-        <v>121.5854007219685</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.17400353319456</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25713,13 +25713,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>64.28590033872817</v>
+        <v>40.85387852158291</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.798654035970358</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>106.8055485781488</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W42" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X42" t="n">
-        <v>46.01197981589236</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>112.3235156606316</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.47280006526452</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C43" t="n">
-        <v>73.88764098195506</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D43" t="n">
-        <v>55.25629290153958</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E43" t="n">
-        <v>53.0747825298964</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F43" t="n">
-        <v>52.06186790625847</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G43" t="n">
-        <v>74.63179924178598</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H43" t="n">
-        <v>68.8679923907668</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I43" t="n">
-        <v>62.09129481058551</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.93421126049671</v>
+        <v>80.19359124120864</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>21.66649142240584</v>
+        <v>32.63425617445839</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>123.7242034585805</v>
+        <v>32.8382251545585</v>
       </c>
       <c r="X43" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.225473235422</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="44">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>280518.9915397256</v>
+        <v>299137.8976270889</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364357.0399353561</v>
+        <v>376509.2973731509</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>413763.4038459135</v>
+        <v>412137.9813882337</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519500.9684237876</v>
+        <v>512651.4898341321</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519500.9684237877</v>
+        <v>512651.489834132</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>560776.7941990535</v>
+        <v>562932.6835794135</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>684261.2970377514</v>
+        <v>668703.033046941</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>684261.2970377514</v>
+        <v>668703.033046941</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>595890.6605402119</v>
+        <v>582784.1947605582</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696384.8879094828</v>
+        <v>696384.8879094826</v>
       </c>
       <c r="C2" t="n">
-        <v>696384.8879094827</v>
+        <v>696384.8879094826</v>
       </c>
       <c r="D2" t="n">
-        <v>696384.8879094827</v>
+        <v>696384.8879094825</v>
       </c>
       <c r="E2" t="n">
-        <v>188783.5242027441</v>
+        <v>201122.442957798</v>
       </c>
       <c r="F2" t="n">
-        <v>267963.9032430614</v>
+        <v>274195.4316068568</v>
       </c>
       <c r="G2" t="n">
-        <v>301542.0112100542</v>
+        <v>298808.3845584194</v>
       </c>
       <c r="H2" t="n">
-        <v>372099.1070798103</v>
+        <v>365630.1550784688</v>
       </c>
       <c r="I2" t="n">
-        <v>372099.1070798103</v>
+        <v>365630.1550784689</v>
       </c>
       <c r="J2" t="n">
-        <v>411081.8314231163</v>
+        <v>413117.9491712346</v>
       </c>
       <c r="K2" t="n">
-        <v>527706.08410411</v>
+        <v>527706.0841041101</v>
       </c>
       <c r="L2" t="n">
-        <v>527706.0841041098</v>
+        <v>527706.0841041097</v>
       </c>
       <c r="M2" t="n">
-        <v>527706.0841041098</v>
+        <v>517395.4807608454</v>
       </c>
       <c r="N2" t="n">
-        <v>527706.0841041098</v>
+        <v>517395.4807608456</v>
       </c>
       <c r="O2" t="n">
-        <v>456173.3101391415</v>
+        <v>444993.4867888505</v>
       </c>
       <c r="P2" t="n">
         <v>182762.5894034589</v>
@@ -26372,25 +26372,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2177.15258808521</v>
+        <v>9826.807892395696</v>
       </c>
       <c r="F3" t="n">
-        <v>30661.43092449709</v>
+        <v>28250.30167409876</v>
       </c>
       <c r="G3" t="n">
-        <v>19109.46138964774</v>
+        <v>14007.34891243551</v>
       </c>
       <c r="H3" t="n">
-        <v>46216.48957935819</v>
+        <v>44326.41885446357</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16706.92292876389</v>
+        <v>19876.96074097004</v>
       </c>
       <c r="K3" t="n">
-        <v>74687.34409333822</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="D4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>86867.59030083434</v>
+        <v>90249.9409903066</v>
       </c>
       <c r="F4" t="n">
-        <v>140036.4766387428</v>
+        <v>139317.7716188361</v>
       </c>
       <c r="G4" t="n">
-        <v>156247.1453952946</v>
+        <v>151230.1442587795</v>
       </c>
       <c r="H4" t="n">
-        <v>189359.8498632016</v>
+        <v>181595.0810249432</v>
       </c>
       <c r="I4" t="n">
-        <v>189359.8498632016</v>
+        <v>181595.0810249432</v>
       </c>
       <c r="J4" t="n">
-        <v>215570.0148034373</v>
+        <v>213523.6580237707</v>
       </c>
       <c r="K4" t="n">
-        <v>293999.1209869308</v>
+        <v>290583.7736373409</v>
       </c>
       <c r="L4" t="n">
-        <v>293999.1209869308</v>
+        <v>290583.7736373409</v>
       </c>
       <c r="M4" t="n">
-        <v>293999.1209869308</v>
+        <v>285924.0544505364</v>
       </c>
       <c r="N4" t="n">
-        <v>293999.1209869308</v>
+        <v>285924.0544505364</v>
       </c>
       <c r="O4" t="n">
-        <v>251730.6913121381</v>
+        <v>241762.2790016676</v>
       </c>
       <c r="P4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>228.7888011596694</v>
+        <v>1786.502505793224</v>
       </c>
       <c r="F5" t="n">
-        <v>3450.883596649102</v>
+        <v>4755.220770092984</v>
       </c>
       <c r="G5" t="n">
-        <v>7689.916205112106</v>
+        <v>7862.456897119559</v>
       </c>
       <c r="H5" t="n">
-        <v>18104.55236041077</v>
+        <v>17851.1758292211</v>
       </c>
       <c r="I5" t="n">
-        <v>18104.55236041077</v>
+        <v>17851.1758292211</v>
       </c>
       <c r="J5" t="n">
-        <v>19631.43143887392</v>
+        <v>19711.18229372719</v>
       </c>
       <c r="K5" t="n">
         <v>24257.94955661305</v>
@@ -26500,13 +26500,13 @@
         <v>24257.94955661305</v>
       </c>
       <c r="M5" t="n">
-        <v>24257.94955661305</v>
+        <v>22700.23585197949</v>
       </c>
       <c r="N5" t="n">
-        <v>24257.94955661305</v>
+        <v>22700.23585197949</v>
       </c>
       <c r="O5" t="n">
-        <v>18263.24906852723</v>
+        <v>17504.20445928715</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>235040.1141765117</v>
+        <v>237234.1487433791</v>
       </c>
       <c r="C6" t="n">
-        <v>235040.1141765116</v>
+        <v>237234.1487433791</v>
       </c>
       <c r="D6" t="n">
-        <v>235040.1141765116</v>
+        <v>237234.148743379</v>
       </c>
       <c r="E6" t="n">
-        <v>99509.99251266484</v>
+        <v>99259.19156930251</v>
       </c>
       <c r="F6" t="n">
-        <v>93815.11208317237</v>
+        <v>101872.1375438289</v>
       </c>
       <c r="G6" t="n">
-        <v>118495.4882199998</v>
+        <v>125708.4344900849</v>
       </c>
       <c r="H6" t="n">
-        <v>118418.2152768398</v>
+        <v>121857.4793698409</v>
       </c>
       <c r="I6" t="n">
-        <v>164634.7048561979</v>
+        <v>166183.8982243046</v>
       </c>
       <c r="J6" t="n">
-        <v>159173.4622520412</v>
+        <v>160006.1481127666</v>
       </c>
       <c r="K6" t="n">
-        <v>134761.6694672279</v>
+        <v>141347.0546290241</v>
       </c>
       <c r="L6" t="n">
-        <v>209449.0135605659</v>
+        <v>212864.3609101557</v>
       </c>
       <c r="M6" t="n">
-        <v>209449.0135605659</v>
+        <v>208771.1904583295</v>
       </c>
       <c r="N6" t="n">
-        <v>209449.0135605659</v>
+        <v>208771.1904583297</v>
       </c>
       <c r="O6" t="n">
-        <v>186179.3697584762</v>
+        <v>185727.0033278957</v>
       </c>
       <c r="P6" t="n">
-        <v>99938.00068800653</v>
+        <v>102132.0352548741</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="F2" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G2" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H2" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I2" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J2" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26722,7 +26722,7 @@
         <v>114.2428337776276</v>
       </c>
       <c r="O2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26796,13 +26796,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26820,13 +26820,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,7 +26917,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="F2" t="n">
-        <v>38.32678865562136</v>
+        <v>35.31287709262345</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.88365366095486</v>
+        <v>24.84620092621255</v>
       </c>
       <c r="K2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27018,16 +27018,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.72093106024678</v>
+        <v>51.10585735241078</v>
       </c>
       <c r="H4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306175</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="K2" t="n">
-        <v>38.32678865562136</v>
+        <v>35.31287709262345</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.88365366095486</v>
+        <v>24.84620092621255</v>
       </c>
       <c r="P2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.72093106024678</v>
+        <v>51.10585735241078</v>
       </c>
       <c r="P4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306175</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y15" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="R16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y17" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y18" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="L19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>37.142271585201</v>
       </c>
       <c r="N19" t="n">
-        <v>19.75226697291953</v>
+        <v>32.593976167813</v>
       </c>
       <c r="O19" t="n">
-        <v>41.04822939072788</v>
+        <v>9.065076591585814</v>
       </c>
       <c r="P19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="R19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y20" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y21" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="K22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="L22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="M22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="N22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="O22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="P22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="R22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y23" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y24" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="C25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="D25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="E25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="F25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="G25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="H25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="I25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="J25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="K25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="L25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="M25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="N25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="O25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="P25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="R25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="S25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="T25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="U25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="V25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="W25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="X25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.04822939072788</v>
+        <v>38.03431782772996</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="C26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="D26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="E26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="F26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="G26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="H26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="I26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="S26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="T26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="U26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="V26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="W26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="X26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="C27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="D27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="E27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="F27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="G27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="H27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="I27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="S27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="T27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="U27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="V27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="W27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="X27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="Y27" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="C28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="D28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="E28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="F28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="G28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="H28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="I28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="J28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="K28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="L28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="M28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="N28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="O28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="P28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="R28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="S28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="T28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="U28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="V28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="W28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="X28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.21044231657623</v>
+        <v>60.15907801883599</v>
       </c>
     </row>
     <row r="29">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="44">
@@ -35413,19 +35413,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>66.90392374468125</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="N17" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="O17" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="P17" t="n">
-        <v>69.72093106024678</v>
+        <v>73.62610214110053</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>69.72093106024678</v>
+        <v>3.530588491272945</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>66.90392374468126</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="O18" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>15.7648260018471</v>
       </c>
       <c r="L19" t="n">
-        <v>68.63825465104401</v>
+        <v>65.62434308804609</v>
       </c>
       <c r="M19" t="n">
-        <v>39.58387696184059</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="N19" t="n">
-        <v>63.88443935214812</v>
+        <v>76.72614854704159</v>
       </c>
       <c r="O19" t="n">
-        <v>65.63335730476754</v>
+        <v>33.65020450562549</v>
       </c>
       <c r="P19" t="n">
-        <v>38.32678865562136</v>
+        <v>35.31287709262345</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>18.77873756484502</v>
+        <v>15.7648260018471</v>
       </c>
       <c r="L22" t="n">
-        <v>68.63825465104401</v>
+        <v>65.62434308804609</v>
       </c>
       <c r="M22" t="n">
-        <v>80.63210635256846</v>
+        <v>77.61819478957054</v>
       </c>
       <c r="N22" t="n">
-        <v>85.18040176995646</v>
+        <v>82.16649020695854</v>
       </c>
       <c r="O22" t="n">
-        <v>65.63335730476754</v>
+        <v>62.61944574176963</v>
       </c>
       <c r="P22" t="n">
-        <v>38.32678865562136</v>
+        <v>35.31287709262345</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
         <v>90.5657124162131</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,13 +36446,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>18.77873756484502</v>
+        <v>15.7648260018471</v>
       </c>
       <c r="L25" t="n">
-        <v>68.63825465104401</v>
+        <v>65.62434308804609</v>
       </c>
       <c r="M25" t="n">
-        <v>80.63210635256846</v>
+        <v>77.61819478957054</v>
       </c>
       <c r="N25" t="n">
-        <v>85.18040176995646</v>
+        <v>82.16649020695854</v>
       </c>
       <c r="O25" t="n">
-        <v>65.63335730476754</v>
+        <v>62.61944574176963</v>
       </c>
       <c r="P25" t="n">
-        <v>38.32678865562136</v>
+        <v>35.31287709262345</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36677,7 +36677,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36686,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P27" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>36.94095049069337</v>
+        <v>37.88958619295314</v>
       </c>
       <c r="L28" t="n">
-        <v>86.80046757689237</v>
+        <v>87.74910327915214</v>
       </c>
       <c r="M28" t="n">
-        <v>98.79431927841682</v>
+        <v>99.74295498067659</v>
       </c>
       <c r="N28" t="n">
-        <v>103.3426146958048</v>
+        <v>104.2912503980646</v>
       </c>
       <c r="O28" t="n">
-        <v>83.79557023061591</v>
+        <v>84.74420593287567</v>
       </c>
       <c r="P28" t="n">
-        <v>56.48900158146972</v>
+        <v>57.43763728372948</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095485</v>
       </c>
       <c r="K31" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174477</v>
       </c>
       <c r="L31" t="n">
         <v>141.8328590379438</v>
@@ -37008,7 +37008,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593324</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095485</v>
       </c>
       <c r="K34" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174477</v>
       </c>
       <c r="L34" t="n">
         <v>141.8328590379438</v>
@@ -37245,7 +37245,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593324</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,10 +37309,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>136.5956962480277</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095485</v>
       </c>
       <c r="K37" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174477</v>
       </c>
       <c r="L37" t="n">
         <v>141.8328590379438</v>
@@ -37482,7 +37482,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593324</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>53.02927092565796</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>9.971898209808115</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095485</v>
       </c>
       <c r="K40" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174477</v>
       </c>
       <c r="L40" t="n">
         <v>141.8328590379438</v>
@@ -37719,7 +37719,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593324</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="M41" t="n">
-        <v>171.2933578174123</v>
+        <v>80.67069374414022</v>
       </c>
       <c r="N41" t="n">
-        <v>141.0444979422288</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>171.2933578174123</v>
+        <v>157.6502356707945</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="N42" t="n">
-        <v>138.9464601965789</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="O42" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>71.08968829078992</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="L43" t="n">
-        <v>120.9492053769889</v>
+        <v>116.9866581117312</v>
       </c>
       <c r="M43" t="n">
-        <v>132.9430570785134</v>
+        <v>128.9805098132557</v>
       </c>
       <c r="N43" t="n">
-        <v>137.4913524959014</v>
+        <v>133.5288052306437</v>
       </c>
       <c r="O43" t="n">
-        <v>117.9443080307124</v>
+        <v>113.9817607654548</v>
       </c>
       <c r="P43" t="n">
-        <v>90.63773938156626</v>
+        <v>86.67519211630857</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.19713686497839</v>
+        <v>3.234589599720692</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
